--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2750567639745556</v>
+        <v>0.09654451425277777</v>
       </c>
       <c r="R2">
-        <v>2.475510875771</v>
+        <v>0.8689006282749999</v>
       </c>
       <c r="S2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="T2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>111.84666</v>
       </c>
       <c r="I3">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J3">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>4.923875222806667</v>
+        <v>4.923875222806665</v>
       </c>
       <c r="R3">
-        <v>44.31487700526</v>
+        <v>44.31487700525999</v>
       </c>
       <c r="S3">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="T3">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H4">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I4">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J4">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6261965615523335</v>
+        <v>0.7478002769455554</v>
       </c>
       <c r="R4">
-        <v>5.635769053971001</v>
+        <v>6.730202492509999</v>
       </c>
       <c r="S4">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="T4">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
     </row>
   </sheetData>
